--- a/KurseMscECMX_SoSe25.xlsx
+++ b/KurseMscECMX_SoSe25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jens.klenke\Documents\GitHub\CourseOverview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842070D3-FF81-4E47-91DF-4A78B6E3299F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C868B1-2FC9-4BD1-8C17-BC73D18CB709}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="30" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3859,8 +3859,8 @@
   <dimension ref="A1:AMF137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -50811,7 +50811,7 @@
         <v>397</v>
       </c>
       <c r="M127" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N127" s="62" t="s">
         <v>404</v>
